--- a/Video_Pr_Project/实验计算表格2017.04.20.xlsx
+++ b/Video_Pr_Project/实验计算表格2017.04.20.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\VideoMotionProject\卢加文运动目标观察实验\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\AmyLuProject\Video_Pr_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,14 @@
   </si>
   <si>
     <t>视频帧率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6 m/s 时间(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离预留值(px)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -164,7 +172,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="178" formatCode="0.00000"/>
+    <numFmt numFmtId="177" formatCode="0.00000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -392,56 +400,56 @@
     <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1304,7 +1312,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1323,7 +1331,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1332,19 +1340,19 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="32" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1355,13 +1363,13 @@
       <c r="B2" s="7">
         <v>0.1</v>
       </c>
-      <c r="C2" s="29">
-        <f>I7</f>
-        <v>0.439453125</v>
+      <c r="C2" s="27">
+        <f>I7</f>
+        <v>0.451171875</v>
       </c>
       <c r="D2" s="17">
         <f>C2/B2</f>
-        <v>4.39453125</v>
+        <v>4.51171875</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>3</v>
@@ -1388,15 +1396,15 @@
       <c r="B3" s="7">
         <v>0.2</v>
       </c>
-      <c r="C3" s="29">
-        <f>I7</f>
-        <v>0.439453125</v>
+      <c r="C3" s="27">
+        <f>I7</f>
+        <v>0.451171875</v>
       </c>
       <c r="D3" s="9">
         <f t="shared" ref="D3:D31" si="0">C3/B3</f>
-        <v>2.197265625</v>
-      </c>
-      <c r="E3" s="37" t="s">
+        <v>2.255859375</v>
+      </c>
+      <c r="E3" s="35" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="20"/>
@@ -1412,28 +1420,28 @@
       <c r="B4" s="7">
         <v>0.3</v>
       </c>
-      <c r="C4" s="29">
-        <f>I7</f>
-        <v>0.439453125</v>
+      <c r="C4" s="27">
+        <f>I7</f>
+        <v>0.451171875</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" si="0"/>
-        <v>1.46484375</v>
-      </c>
-      <c r="E4" s="38">
+        <v>1.50390625</v>
+      </c>
+      <c r="E4" s="36">
         <f>MOD(ABS(D2),1)*E6</f>
-        <v>23.671875</v>
-      </c>
-      <c r="F4" s="22" t="s">
+        <v>15.3515625</v>
+      </c>
+      <c r="F4" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="38" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1444,21 +1452,21 @@
       <c r="B5" s="7">
         <v>0.4</v>
       </c>
-      <c r="C5" s="29">
-        <f>I7</f>
-        <v>0.439453125</v>
+      <c r="C5" s="27">
+        <f>I7</f>
+        <v>0.451171875</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
-        <v>1.0986328125</v>
-      </c>
-      <c r="E5" s="37" t="s">
+        <v>1.1279296875</v>
+      </c>
+      <c r="E5" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
@@ -1467,21 +1475,21 @@
       <c r="B6" s="7">
         <v>0.5</v>
       </c>
-      <c r="C6" s="29">
-        <f>I7</f>
-        <v>0.439453125</v>
+      <c r="C6" s="27">
+        <f>I7</f>
+        <v>0.451171875</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
-        <v>0.87890625</v>
-      </c>
-      <c r="E6" s="25">
-        <v>60</v>
-      </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
+        <v>0.90234375</v>
+      </c>
+      <c r="E6" s="23">
+        <v>30</v>
+      </c>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
@@ -1490,27 +1498,32 @@
       <c r="B7" s="7">
         <v>0.6</v>
       </c>
-      <c r="C7" s="29">
-        <f>I7</f>
-        <v>0.439453125</v>
+      <c r="C7" s="27">
+        <f>I7</f>
+        <v>0.451171875</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
-        <v>0.732421875</v>
+        <v>0.751953125</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>31</v>
       </c>
       <c r="F7" s="21">
-        <v>1400</v>
+        <f>H2/2+H11/2+F11/2+E8</f>
+        <v>1410</v>
       </c>
       <c r="G7" s="21">
-        <v>-100</v>
-      </c>
-      <c r="H7" s="28">
+        <f>H2/2-H11/2-F11/2-E8</f>
+        <v>-130</v>
+      </c>
+      <c r="H7" s="26">
         <f>(F7-G7)*F2</f>
-        <v>439.453125</v>
+        <v>451.171875</v>
       </c>
       <c r="I7" s="9">
         <f>H7/1000</f>
-        <v>0.439453125</v>
+        <v>0.451171875</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -1520,25 +1533,27 @@
       <c r="B8" s="7">
         <v>0.7</v>
       </c>
-      <c r="C8" s="29">
-        <f>I7</f>
-        <v>0.439453125</v>
+      <c r="C8" s="27">
+        <f>I7</f>
+        <v>0.451171875</v>
       </c>
       <c r="D8" s="9">
         <f>C8/B8</f>
-        <v>0.6277901785714286</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="31" t="s">
+        <v>0.64453125</v>
+      </c>
+      <c r="E8" s="23">
+        <v>0</v>
+      </c>
+      <c r="F8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="29" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1549,25 +1564,25 @@
       <c r="B9" s="7">
         <v>0.8</v>
       </c>
-      <c r="C9" s="29">
-        <f>I7</f>
-        <v>0.439453125</v>
+      <c r="C9" s="27">
+        <f>I7</f>
+        <v>0.451171875</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
-        <v>0.54931640625</v>
-      </c>
-      <c r="E9" s="35" t="s">
+        <v>0.56396484375</v>
+      </c>
+      <c r="E9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="22">
         <v>440</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="22">
         <v>140</v>
       </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
@@ -1576,27 +1591,27 @@
       <c r="B10" s="7">
         <v>0.9</v>
       </c>
-      <c r="C10" s="29">
-        <f>I7</f>
-        <v>0.439453125</v>
+      <c r="C10" s="27">
+        <f>I7</f>
+        <v>0.451171875</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
-        <v>0.48828125</v>
-      </c>
-      <c r="E10" s="35" t="s">
+        <v>0.50130208333333337</v>
+      </c>
+      <c r="E10" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="25">
         <f>F9/F2</f>
         <v>1501.8666666666666</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="25">
         <f>G9/F2</f>
         <v>477.86666666666667</v>
       </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
@@ -1605,28 +1620,28 @@
       <c r="B11" s="7">
         <v>1</v>
       </c>
-      <c r="C11" s="29">
-        <f>I7</f>
-        <v>0.439453125</v>
+      <c r="C11" s="27">
+        <f>I7</f>
+        <v>0.451171875</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
-        <v>0.439453125</v>
-      </c>
-      <c r="E11" s="36" t="s">
+        <v>0.451171875</v>
+      </c>
+      <c r="E11" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="25">
-        <v>660</v>
-      </c>
-      <c r="G11" s="25">
-        <v>210</v>
-      </c>
-      <c r="H11" s="25">
-        <v>900</v>
-      </c>
-      <c r="I11" s="25">
-        <v>700</v>
+      <c r="F11" s="23">
+        <v>440</v>
+      </c>
+      <c r="G11" s="23">
+        <v>140</v>
+      </c>
+      <c r="H11" s="23">
+        <v>1100</v>
+      </c>
+      <c r="I11" s="23">
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -1636,32 +1651,32 @@
       <c r="B12" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C12" s="29">
-        <f>I7</f>
-        <v>0.439453125</v>
+      <c r="C12" s="27">
+        <f>I7</f>
+        <v>0.451171875</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
-        <v>0.39950284090909088</v>
-      </c>
-      <c r="E12" s="36" t="s">
+        <v>0.41015624999999994</v>
+      </c>
+      <c r="E12" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="24">
         <f>F11*F2</f>
-        <v>193.359375</v>
-      </c>
-      <c r="G12" s="26">
+        <v>128.90625</v>
+      </c>
+      <c r="G12" s="24">
         <f>G11*F2</f>
-        <v>61.5234375</v>
-      </c>
-      <c r="H12" s="26">
+        <v>41.015625</v>
+      </c>
+      <c r="H12" s="24">
         <f>H11*F2</f>
-        <v>263.671875</v>
-      </c>
-      <c r="I12" s="26">
+        <v>322.265625</v>
+      </c>
+      <c r="I12" s="24">
         <f>I11*F2</f>
-        <v>205.078125</v>
+        <v>175.78125</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -1671,13 +1686,13 @@
       <c r="B13" s="6">
         <v>1.2</v>
       </c>
-      <c r="C13" s="29">
-        <f>I7</f>
-        <v>0.439453125</v>
+      <c r="C13" s="27">
+        <f>I7</f>
+        <v>0.451171875</v>
       </c>
       <c r="D13" s="9">
         <f t="shared" si="0"/>
-        <v>0.3662109375</v>
+        <v>0.3759765625</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -1687,13 +1702,13 @@
       <c r="B14" s="8">
         <v>1.3</v>
       </c>
-      <c r="C14" s="29">
-        <f>I7</f>
-        <v>0.439453125</v>
+      <c r="C14" s="27">
+        <f>I7</f>
+        <v>0.451171875</v>
       </c>
       <c r="D14" s="9">
         <f t="shared" si="0"/>
-        <v>0.33804086538461536</v>
+        <v>0.34705528846153844</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -1703,13 +1718,16 @@
       <c r="B15" s="8">
         <v>1.4</v>
       </c>
-      <c r="C15" s="29">
-        <f>I7</f>
-        <v>0.439453125</v>
+      <c r="C15" s="27">
+        <f>I7</f>
+        <v>0.451171875</v>
       </c>
       <c r="D15" s="9">
         <f t="shared" si="0"/>
-        <v>0.3138950892857143</v>
+        <v>0.322265625</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -1719,13 +1737,17 @@
       <c r="B16" s="8">
         <v>1.5</v>
       </c>
-      <c r="C16" s="29">
-        <f>I7</f>
-        <v>0.439453125</v>
+      <c r="C16" s="27">
+        <f>I7</f>
+        <v>0.451171875</v>
       </c>
       <c r="D16" s="9">
         <f t="shared" si="0"/>
-        <v>0.29296875</v>
+        <v>0.30078125</v>
+      </c>
+      <c r="F16" s="20">
+        <f>H12/1000/0.6</f>
+        <v>0.537109375</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
@@ -1735,13 +1757,13 @@
       <c r="B17" s="8">
         <v>1.6</v>
       </c>
-      <c r="C17" s="29">
-        <f>I7</f>
-        <v>0.439453125</v>
+      <c r="C17" s="27">
+        <f>I7</f>
+        <v>0.451171875</v>
       </c>
       <c r="D17" s="9">
         <f t="shared" si="0"/>
-        <v>0.274658203125</v>
+        <v>0.281982421875</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -1751,13 +1773,13 @@
       <c r="B18" s="8">
         <v>1.7</v>
       </c>
-      <c r="C18" s="29">
-        <f>I7</f>
-        <v>0.439453125</v>
+      <c r="C18" s="27">
+        <f>I7</f>
+        <v>0.451171875</v>
       </c>
       <c r="D18" s="9">
         <f t="shared" si="0"/>
-        <v>0.2585018382352941</v>
+        <v>0.26539522058823528</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -1767,13 +1789,13 @@
       <c r="B19" s="6">
         <v>1.8</v>
       </c>
-      <c r="C19" s="29">
-        <f>I7</f>
-        <v>0.439453125</v>
+      <c r="C19" s="27">
+        <f>I7</f>
+        <v>0.451171875</v>
       </c>
       <c r="D19" s="9">
         <f t="shared" si="0"/>
-        <v>0.244140625</v>
+        <v>0.25065104166666669</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -1783,13 +1805,13 @@
       <c r="B20" s="6">
         <v>1.9</v>
       </c>
-      <c r="C20" s="29">
-        <f>I7</f>
-        <v>0.439453125</v>
+      <c r="C20" s="27">
+        <f>I7</f>
+        <v>0.451171875</v>
       </c>
       <c r="D20" s="9">
         <f t="shared" si="0"/>
-        <v>0.23129111842105265</v>
+        <v>0.23745888157894737</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -1799,13 +1821,13 @@
       <c r="B21" s="6">
         <v>2</v>
       </c>
-      <c r="C21" s="29">
-        <f>I7</f>
-        <v>0.439453125</v>
+      <c r="C21" s="27">
+        <f>I7</f>
+        <v>0.451171875</v>
       </c>
       <c r="D21" s="9">
         <f t="shared" si="0"/>
-        <v>0.2197265625</v>
+        <v>0.2255859375</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -1815,13 +1837,13 @@
       <c r="B22" s="19">
         <v>1.34</v>
       </c>
-      <c r="C22" s="29">
-        <f>I7</f>
-        <v>0.439453125</v>
+      <c r="C22" s="27">
+        <f>I7</f>
+        <v>0.451171875</v>
       </c>
       <c r="D22" s="9">
         <f t="shared" si="0"/>
-        <v>0.32795009328358204</v>
+        <v>0.33669542910447758</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
@@ -1831,13 +1853,13 @@
       <c r="B23" s="19">
         <v>1.38</v>
       </c>
-      <c r="C23" s="29">
-        <f>I7</f>
-        <v>0.439453125</v>
+      <c r="C23" s="27">
+        <f>I7</f>
+        <v>0.451171875</v>
       </c>
       <c r="D23" s="9">
         <f t="shared" si="0"/>
-        <v>0.31844429347826092</v>
+        <v>0.32693614130434784</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -1847,13 +1869,13 @@
       <c r="B24" s="19">
         <v>1.42</v>
       </c>
-      <c r="C24" s="29">
-        <f>I7</f>
-        <v>0.439453125</v>
+      <c r="C24" s="27">
+        <f>I7</f>
+        <v>0.451171875</v>
       </c>
       <c r="D24" s="9">
         <f t="shared" si="0"/>
-        <v>0.30947403169014087</v>
+        <v>0.31772667253521131</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
@@ -1863,13 +1885,13 @@
       <c r="B25" s="19">
         <v>1.46</v>
       </c>
-      <c r="C25" s="29">
-        <f>I7</f>
-        <v>0.439453125</v>
+      <c r="C25" s="27">
+        <f>I7</f>
+        <v>0.451171875</v>
       </c>
       <c r="D25" s="9">
         <f t="shared" si="0"/>
-        <v>0.3009952910958904</v>
+        <v>0.30902183219178081</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
@@ -1879,13 +1901,13 @@
       <c r="B26" s="19">
         <v>1.5</v>
       </c>
-      <c r="C26" s="29">
-        <f>I7</f>
-        <v>0.439453125</v>
+      <c r="C26" s="27">
+        <f>I7</f>
+        <v>0.451171875</v>
       </c>
       <c r="D26" s="9">
         <f t="shared" si="0"/>
-        <v>0.29296875</v>
+        <v>0.30078125</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
@@ -1895,13 +1917,13 @@
       <c r="B27" s="19">
         <v>1.54</v>
       </c>
-      <c r="C27" s="29">
-        <f>I7</f>
-        <v>0.439453125</v>
+      <c r="C27" s="27">
+        <f>I7</f>
+        <v>0.451171875</v>
       </c>
       <c r="D27" s="9">
         <f t="shared" si="0"/>
-        <v>0.28535917207792205</v>
+        <v>0.29296875</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
@@ -1911,13 +1933,13 @@
       <c r="B28" s="19">
         <v>1.58</v>
       </c>
-      <c r="C28" s="29">
-        <f>I7</f>
-        <v>0.439453125</v>
+      <c r="C28" s="27">
+        <f>I7</f>
+        <v>0.451171875</v>
       </c>
       <c r="D28" s="9">
         <f t="shared" si="0"/>
-        <v>0.27813488924050633</v>
+        <v>0.28555181962025317</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
@@ -1927,13 +1949,13 @@
       <c r="B29" s="19">
         <v>1.62</v>
       </c>
-      <c r="C29" s="29">
-        <f>I7</f>
-        <v>0.439453125</v>
+      <c r="C29" s="27">
+        <f>I7</f>
+        <v>0.451171875</v>
       </c>
       <c r="D29" s="9">
         <f t="shared" si="0"/>
-        <v>0.2712673611111111</v>
+        <v>0.27850115740740738</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
@@ -1943,13 +1965,13 @@
       <c r="B30" s="19">
         <v>1.66</v>
       </c>
-      <c r="C30" s="29">
-        <f>I7</f>
-        <v>0.439453125</v>
+      <c r="C30" s="27">
+        <f>I7</f>
+        <v>0.451171875</v>
       </c>
       <c r="D30" s="9">
         <f t="shared" si="0"/>
-        <v>0.26473079819277112</v>
+        <v>0.27179028614457834</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
@@ -1959,13 +1981,13 @@
       <c r="B31" s="19">
         <v>1.7</v>
       </c>
-      <c r="C31" s="29">
-        <f>I7</f>
-        <v>0.439453125</v>
+      <c r="C31" s="27">
+        <f>I7</f>
+        <v>0.451171875</v>
       </c>
       <c r="D31" s="9">
         <f t="shared" si="0"/>
-        <v>0.2585018382352941</v>
+        <v>0.26539522058823528</v>
       </c>
     </row>
   </sheetData>
